--- a/biology/Zoologie/Pimpla_aquensis/Pimpla_aquensis.xlsx
+++ b/biology/Zoologie/Pimpla_aquensis/Pimpla_aquensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pimpla aquensis est une espèce fossile d’insectes hyménoptères de la tribu des Pimplini, dans la grande famille des Ichneumonidae.
 </t>
@@ -511,14 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Pimpla aquensis est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1],[2]. 
-Fossiles
-L'holotype no 1 de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) faisait partie de la collection Coquand de l'école des Mines[note 1] et vient du gypse d'Aix-en-Provence. 
-Il y a aussi deux autres échantillons F311 et 148 de la collection Fliche, un paléontologue français du XIXe siècle, collection conservée à l'École nationale des eaux et forêts de Nancy et venant de Céreste[3].
-Étymologie
-L'épithète spécifique aquensis signifie en latin « de l'eau ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Pimpla aquensis est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse,. 
 </t>
         </is>
       </c>
@@ -544,18 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[1],[note 2] : 
-« Insecte à tête et thorax noirs, abdomen clair avec deux bandes brunes ; ailes claires. tête transversale ; deux gros yeux saillants ; front arrondi ; antennes homonomes, incomplètement conservées. Un échantillon de Céreste (v. p. 530) les montre bien conservées et très longues. cou net, thorax ovale ; abdomen en forme de fuseau, porte deux bandes brunes, l'une vers le milieu, l'autre vers le quart postérieur ; tarière longue et forte. Pattes manquent, sauf les hanches III et un fémur III, ce dernier est de teinte noire. ailes transparentes ; stigma court et triangulaire, aréole subquadrangukaire ; ramellus court. »[1].
-Dimensions
-La longueur du corps est de 6,75 mm, la longueur de la tarière est de 3 mm[1].
-Affinités
-« En raison de sa conservation imparfaite, les affinités avec la faune actuelle sont impossibles à déterminer. Cette espèce ressemble beaucoup à Pimpla ? saussurei Heer mais elle est de taille inférieure. P. aquensis existe aussi à Céreste (v. Chap. VI). »[4].
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype no 1 de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) faisait partie de la collection Coquand de l'école des Mines[note 1] et vient du gypse d'Aix-en-Provence. 
+Il y a aussi deux autres échantillons F311 et 148 de la collection Fliche, un paléontologue français du XIXe siècle, collection conservée à l'École nationale des eaux et forêts de Nancy et venant de Céreste.
 </t>
         </is>
       </c>
@@ -581,13 +591,166 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique aquensis signifie en latin « de l'eau ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pimpla_aquensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pimpla_aquensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 2] : 
+« Insecte à tête et thorax noirs, abdomen clair avec deux bandes brunes ; ailes claires. tête transversale ; deux gros yeux saillants ; front arrondi ; antennes homonomes, incomplètement conservées. Un échantillon de Céreste (v. p. 530) les montre bien conservées et très longues. cou net, thorax ovale ; abdomen en forme de fuseau, porte deux bandes brunes, l'une vers le milieu, l'autre vers le quart postérieur ; tarière longue et forte. Pattes manquent, sauf les hanches III et un fémur III, ce dernier est de teinte noire. ailes transparentes ; stigma court et triangulaire, aréole subquadrangukaire ; ramellus court. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pimpla_aquensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pimpla_aquensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur du corps est de 6,75 mm, la longueur de la tarière est de 3 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pimpla_aquensis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pimpla_aquensis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« En raison de sa conservation imparfaite, les affinités avec la faune actuelle sont impossibles à déterminer. Cette espèce ressemble beaucoup à Pimpla ? saussurei Heer mais elle est de taille inférieure. P. aquensis existe aussi à Céreste (v. Chap. VI). ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pimpla_aquensis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pimpla_aquensis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Le g. Pimpla est cosmopolite. »[4].
+« Le g. Pimpla est cosmopolite. ».
 </t>
         </is>
       </c>
